--- a/data/Lakes/LakeKohata_ce1e57260f.xlsx
+++ b/data/Lakes/LakeKohata_ce1e57260f.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -527,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -597,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -628,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -659,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -694,7 +694,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -729,7 +729,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -764,7 +764,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -795,7 +795,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -826,7 +826,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -861,7 +861,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -896,7 +896,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -931,7 +931,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -962,7 +962,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -993,7 +993,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5909,7 +5909,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -6905,7 +6905,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7133,7 +7133,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -7823,7 +7823,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -7932,7 +7932,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8197,7 +8197,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8663,7 +8663,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9115,7 +9115,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9275,7 +9275,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">

--- a/data/Lakes/LakeKohata_ce1e57260f.xlsx
+++ b/data/Lakes/LakeKohata_ce1e57260f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="267">
   <si>
     <t>site name</t>
   </si>
@@ -73,7 +73,7 @@
     <t>11.000</t>
   </si>
   <si>
-    <t>&lt;4</t>
+    <t>&lt;4.0</t>
   </si>
   <si>
     <t>1.230</t>
@@ -100,7 +100,7 @@
     <t>65.000</t>
   </si>
   <si>
-    <t>180</t>
+    <t>180.0</t>
   </si>
   <si>
     <t>0.0710</t>
@@ -118,7 +118,7 @@
     <t>20.000</t>
   </si>
   <si>
-    <t>39</t>
+    <t>39.0</t>
   </si>
   <si>
     <t>0.0080</t>
@@ -136,7 +136,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>12</t>
+    <t>12.0</t>
   </si>
   <si>
     <t>0.8200</t>
@@ -202,7 +202,7 @@
     <t>30.000</t>
   </si>
   <si>
-    <t>8</t>
+    <t>8.0</t>
   </si>
   <si>
     <t>0.2750</t>
@@ -214,7 +214,7 @@
     <t>74.000</t>
   </si>
   <si>
-    <t>16</t>
+    <t>16.0</t>
   </si>
   <si>
     <t>&lt;0.0020</t>
@@ -226,7 +226,7 @@
     <t>0.05900</t>
   </si>
   <si>
-    <t>4</t>
+    <t>4.0</t>
   </si>
   <si>
     <t>0.03600</t>
@@ -325,7 +325,7 @@
     <t>16.000</t>
   </si>
   <si>
-    <t>87</t>
+    <t>87.0</t>
   </si>
   <si>
     <t>8.560</t>
@@ -418,6 +418,9 @@
     <t>4.54810</t>
   </si>
   <si>
+    <t>12.4</t>
+  </si>
+  <si>
     <t>8.070</t>
   </si>
   <si>
@@ -430,7 +433,7 @@
     <t>0.24810</t>
   </si>
   <si>
-    <t>154</t>
+    <t>153.6</t>
   </si>
   <si>
     <t>7.940</t>
@@ -472,7 +475,7 @@
     <t>4.300</t>
   </si>
   <si>
-    <t>30</t>
+    <t>30.0</t>
   </si>
   <si>
     <t>7.030</t>
@@ -493,6 +496,9 @@
     <t>8.200</t>
   </si>
   <si>
+    <t>16.4</t>
+  </si>
+  <si>
     <t>6.880</t>
   </si>
   <si>
@@ -511,7 +517,7 @@
     <t>4.100</t>
   </si>
   <si>
-    <t>59</t>
+    <t>59.2</t>
   </si>
   <si>
     <t>7.180</t>
@@ -523,7 +529,7 @@
     <t>0.0350</t>
   </si>
   <si>
-    <t>21</t>
+    <t>20.8</t>
   </si>
   <si>
     <t>0.03900</t>
@@ -550,7 +556,7 @@
     <t>4.800</t>
   </si>
   <si>
-    <t>79</t>
+    <t>78.8</t>
   </si>
   <si>
     <t>7.810</t>
@@ -670,12 +676,93 @@
     <t>1.900</t>
   </si>
   <si>
-    <t>48</t>
+    <t>48.4</t>
   </si>
   <si>
     <t>0.03400</t>
   </si>
   <si>
+    <t>0.62300</t>
+  </si>
+  <si>
+    <t>5.000</t>
+  </si>
+  <si>
+    <t>8.450</t>
+  </si>
+  <si>
+    <t>0.03490</t>
+  </si>
+  <si>
+    <t>0.0270</t>
+  </si>
+  <si>
+    <t>8.370</t>
+  </si>
+  <si>
+    <t>0.08200</t>
+  </si>
+  <si>
+    <t>0.0110</t>
+  </si>
+  <si>
+    <t>8.300</t>
+  </si>
+  <si>
+    <t>0.6900</t>
+  </si>
+  <si>
+    <t>0.02100</t>
+  </si>
+  <si>
+    <t>0.18160</t>
+  </si>
+  <si>
+    <t>25.2</t>
+  </si>
+  <si>
+    <t>7.860</t>
+  </si>
+  <si>
+    <t>0.0010</t>
+  </si>
+  <si>
+    <t>0.7300</t>
+  </si>
+  <si>
+    <t>0.13160</t>
+  </si>
+  <si>
+    <t>&lt;0.0500</t>
+  </si>
+  <si>
+    <t>7.400</t>
+  </si>
+  <si>
+    <t>0.09170</t>
+  </si>
+  <si>
+    <t>7.730</t>
+  </si>
+  <si>
+    <t>0.06410</t>
+  </si>
+  <si>
+    <t>0.0600</t>
+  </si>
+  <si>
+    <t>8.750</t>
+  </si>
+  <si>
+    <t>0.9000</t>
+  </si>
+  <si>
+    <t>1.18110</t>
+  </si>
+  <si>
+    <t>0.02300</t>
+  </si>
+  <si>
     <t>Science - Lakes Sampling</t>
   </si>
   <si>
@@ -710,6 +797,9 @@
   </si>
   <si>
     <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+  </si>
+  <si>
+    <t>APHA Online Edition Method 4500 NH3 H.</t>
   </si>
   <si>
     <t>g/m3</t>
@@ -1086,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I319"/>
+  <dimension ref="A1:I383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1135,10 +1225,10 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -1158,10 +1248,10 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H3">
         <v>200</v>
@@ -1181,10 +1271,10 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G4" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -1204,7 +1294,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -1224,7 +1314,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -1244,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H7">
         <v>200</v>
@@ -1267,10 +1357,10 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G8" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -1290,10 +1380,10 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G9" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H9">
         <v>200</v>
@@ -1313,7 +1403,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -1333,7 +1423,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -1353,10 +1443,10 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G12" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H12">
         <v>200</v>
@@ -1376,10 +1466,10 @@
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G13" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H13">
         <v>200</v>
@@ -1399,10 +1489,10 @@
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G14" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H14">
         <v>200</v>
@@ -1422,7 +1512,7 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -1442,7 +1532,7 @@
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H16">
         <v>200</v>
@@ -1462,7 +1552,7 @@
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H17">
         <v>200</v>
@@ -1482,10 +1572,10 @@
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G18" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H18">
         <v>200</v>
@@ -1505,10 +1595,10 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G19" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H19">
         <v>200</v>
@@ -1528,10 +1618,10 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G20" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H20">
         <v>200</v>
@@ -1551,7 +1641,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1571,7 +1661,7 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H22">
         <v>200</v>
@@ -1591,7 +1681,7 @@
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H23">
         <v>200</v>
@@ -1611,10 +1701,10 @@
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G24" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H24">
         <v>200</v>
@@ -1634,10 +1724,10 @@
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H25">
         <v>200</v>
@@ -1657,10 +1747,10 @@
         <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H26">
         <v>200</v>
@@ -1680,7 +1770,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1700,7 +1790,7 @@
         <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H28">
         <v>200</v>
@@ -1720,7 +1810,7 @@
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H29">
         <v>200</v>
@@ -1740,10 +1830,10 @@
         <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G30" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H30">
         <v>200</v>
@@ -1763,10 +1853,10 @@
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H31">
         <v>200</v>
@@ -1786,10 +1876,10 @@
         <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H32">
         <v>200</v>
@@ -1809,7 +1899,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H33">
         <v>200</v>
@@ -1829,7 +1919,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H34">
         <v>200</v>
@@ -1849,13 +1939,13 @@
         <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F35" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H35">
         <v>200</v>
@@ -1875,13 +1965,13 @@
         <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F36" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G36" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H36">
         <v>200</v>
@@ -1901,13 +1991,13 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F37" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G37" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H37">
         <v>200</v>
@@ -1927,10 +2017,10 @@
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F38" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H38">
         <v>200</v>
@@ -1950,10 +2040,10 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F39" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H39">
         <v>200</v>
@@ -1973,13 +2063,13 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F40" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G40" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -1999,13 +2089,13 @@
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F41" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G41" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -2025,13 +2115,13 @@
         <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F42" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G42" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -2051,10 +2141,10 @@
         <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F43" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -2074,10 +2164,10 @@
         <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F44" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -2097,13 +2187,13 @@
         <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F45" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G45" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -2123,13 +2213,13 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F46" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G46" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -2149,13 +2239,13 @@
         <v>53</v>
       </c>
       <c r="E47" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F47" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G47" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -2175,10 +2265,10 @@
         <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F48" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -2198,10 +2288,10 @@
         <v>55</v>
       </c>
       <c r="E49" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F49" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -2221,13 +2311,13 @@
         <v>56</v>
       </c>
       <c r="E50" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F50" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G50" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2247,13 +2337,13 @@
         <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F51" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G51" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2273,13 +2363,13 @@
         <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F52" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G52" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2299,10 +2389,10 @@
         <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F53" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2322,10 +2412,10 @@
         <v>60</v>
       </c>
       <c r="E54" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F54" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H54">
         <v>600</v>
@@ -2345,13 +2435,13 @@
         <v>26</v>
       </c>
       <c r="E55" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F55" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G55" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -2371,13 +2461,13 @@
         <v>61</v>
       </c>
       <c r="E56" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F56" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G56" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2397,13 +2487,13 @@
         <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F57" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G57" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2423,13 +2513,13 @@
         <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F58" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G58" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2449,10 +2539,10 @@
         <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F59" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2472,10 +2562,10 @@
         <v>55</v>
       </c>
       <c r="E60" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F60" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2495,13 +2585,13 @@
         <v>26</v>
       </c>
       <c r="E61" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F61" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G61" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2521,13 +2611,13 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F62" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G62" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2547,13 +2637,13 @@
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F63" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G63" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2573,13 +2663,13 @@
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F64" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G64" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2599,10 +2689,10 @@
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F65" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2622,10 +2712,10 @@
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F66" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2645,13 +2735,13 @@
         <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F67" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G67" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2671,13 +2761,13 @@
         <v>57</v>
       </c>
       <c r="E68" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F68" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G68" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2697,13 +2787,13 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F69" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G69" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2723,13 +2813,13 @@
         <v>67</v>
       </c>
       <c r="E70" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F70" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G70" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2749,10 +2839,10 @@
         <v>59</v>
       </c>
       <c r="E71" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F71" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2772,10 +2862,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F72" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2795,7 +2885,7 @@
         <v>72</v>
       </c>
       <c r="G73" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2815,13 +2905,13 @@
         <v>26</v>
       </c>
       <c r="E74" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F74" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G74" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2844,13 +2934,13 @@
         <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F75" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G75" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2873,13 +2963,13 @@
         <v>40</v>
       </c>
       <c r="E76" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F76" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G76" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2902,7 +2992,7 @@
         <v>74</v>
       </c>
       <c r="E77" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G77" t="s">
         <v>8</v>
@@ -2928,13 +3018,13 @@
         <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F78" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G78" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -2957,10 +3047,10 @@
         <v>75</v>
       </c>
       <c r="E79" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F79" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -2983,10 +3073,10 @@
         <v>76</v>
       </c>
       <c r="E80" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F80" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -3009,7 +3099,7 @@
         <v>77</v>
       </c>
       <c r="G81" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -3029,13 +3119,13 @@
         <v>78</v>
       </c>
       <c r="E82" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F82" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="G82" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -3058,13 +3148,13 @@
         <v>79</v>
       </c>
       <c r="E83" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F83" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G83" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -3087,13 +3177,13 @@
         <v>62</v>
       </c>
       <c r="E84" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F84" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G84" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -3116,7 +3206,7 @@
         <v>80</v>
       </c>
       <c r="E85" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G85" t="s">
         <v>8</v>
@@ -3142,13 +3232,13 @@
         <v>81</v>
       </c>
       <c r="E86" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F86" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G86" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -3171,10 +3261,10 @@
         <v>82</v>
       </c>
       <c r="E87" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F87" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3197,10 +3287,10 @@
         <v>37</v>
       </c>
       <c r="E88" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F88" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3223,7 +3313,7 @@
         <v>83</v>
       </c>
       <c r="G89" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3243,13 +3333,13 @@
         <v>84</v>
       </c>
       <c r="E90" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F90" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="G90" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3269,13 +3359,13 @@
         <v>85</v>
       </c>
       <c r="E91" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F91" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G91" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3295,13 +3385,13 @@
         <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F92" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G92" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3321,13 +3411,13 @@
         <v>67</v>
       </c>
       <c r="E93" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F93" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G93" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3347,10 +3437,10 @@
         <v>86</v>
       </c>
       <c r="E94" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F94" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3370,10 +3460,10 @@
         <v>87</v>
       </c>
       <c r="E95" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F95" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3393,7 +3483,7 @@
         <v>88</v>
       </c>
       <c r="G96" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3413,13 +3503,13 @@
         <v>35</v>
       </c>
       <c r="E97" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F97" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="G97" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3442,13 +3532,13 @@
         <v>89</v>
       </c>
       <c r="E98" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F98" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G98" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3471,13 +3561,13 @@
         <v>40</v>
       </c>
       <c r="E99" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F99" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G99" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3500,7 +3590,7 @@
         <v>90</v>
       </c>
       <c r="E100" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G100" t="s">
         <v>8</v>
@@ -3526,13 +3616,13 @@
         <v>67</v>
       </c>
       <c r="E101" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F101" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G101" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3555,10 +3645,10 @@
         <v>91</v>
       </c>
       <c r="E102" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F102" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3581,10 +3671,10 @@
         <v>92</v>
       </c>
       <c r="E103" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F103" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3607,7 +3697,7 @@
         <v>93</v>
       </c>
       <c r="G104" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3627,13 +3717,13 @@
         <v>94</v>
       </c>
       <c r="E105" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F105" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="G105" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3656,13 +3746,13 @@
         <v>95</v>
       </c>
       <c r="E106" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F106" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G106" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3685,13 +3775,13 @@
         <v>70</v>
       </c>
       <c r="E107" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F107" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G107" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3714,7 +3804,7 @@
         <v>96</v>
       </c>
       <c r="E108" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G108" t="s">
         <v>8</v>
@@ -3740,13 +3830,13 @@
         <v>97</v>
       </c>
       <c r="E109" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F109" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G109" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3769,10 +3859,10 @@
         <v>98</v>
       </c>
       <c r="E110" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F110" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3795,10 +3885,10 @@
         <v>99</v>
       </c>
       <c r="E111" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F111" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3821,7 +3911,7 @@
         <v>100</v>
       </c>
       <c r="G112" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3841,13 +3931,13 @@
         <v>101</v>
       </c>
       <c r="E113" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F113" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="G113" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3870,13 +3960,13 @@
         <v>102</v>
       </c>
       <c r="E114" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G114" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3899,13 +3989,13 @@
         <v>103</v>
       </c>
       <c r="E115" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F115" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G115" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -3928,7 +4018,7 @@
         <v>104</v>
       </c>
       <c r="E116" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G116" t="s">
         <v>8</v>
@@ -3954,13 +4044,13 @@
         <v>105</v>
       </c>
       <c r="E117" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G117" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -3983,10 +4073,10 @@
         <v>106</v>
       </c>
       <c r="E118" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -4009,10 +4099,10 @@
         <v>107</v>
       </c>
       <c r="E119" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F119" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -4035,7 +4125,7 @@
         <v>108</v>
       </c>
       <c r="G120" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -4055,13 +4145,13 @@
         <v>84</v>
       </c>
       <c r="E121" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F121" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="G121" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -4084,13 +4174,13 @@
         <v>109</v>
       </c>
       <c r="E122" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F122" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G122" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -4113,13 +4203,13 @@
         <v>70</v>
       </c>
       <c r="E123" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F123" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G123" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -4142,7 +4232,7 @@
         <v>110</v>
       </c>
       <c r="E124" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G124" t="s">
         <v>8</v>
@@ -4168,13 +4258,13 @@
         <v>67</v>
       </c>
       <c r="E125" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F125" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G125" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -4197,10 +4287,10 @@
         <v>111</v>
       </c>
       <c r="E126" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F126" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4223,10 +4313,10 @@
         <v>112</v>
       </c>
       <c r="E127" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4249,7 +4339,7 @@
         <v>113</v>
       </c>
       <c r="G128" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4269,13 +4359,13 @@
         <v>114</v>
       </c>
       <c r="E129" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="G129" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4298,13 +4388,13 @@
         <v>115</v>
       </c>
       <c r="E130" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G130" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4327,13 +4417,13 @@
         <v>62</v>
       </c>
       <c r="E131" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G131" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4356,7 +4446,7 @@
         <v>116</v>
       </c>
       <c r="E132" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G132" t="s">
         <v>8</v>
@@ -4382,13 +4472,13 @@
         <v>67</v>
       </c>
       <c r="E133" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G133" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4411,10 +4501,10 @@
         <v>117</v>
       </c>
       <c r="E134" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F134" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4437,10 +4527,10 @@
         <v>99</v>
       </c>
       <c r="E135" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F135" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4463,7 +4553,7 @@
         <v>118</v>
       </c>
       <c r="G136" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4483,13 +4573,13 @@
         <v>26</v>
       </c>
       <c r="E137" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F137" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="G137" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4512,13 +4602,13 @@
         <v>119</v>
       </c>
       <c r="E138" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F138" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G138" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4541,13 +4631,13 @@
         <v>62</v>
       </c>
       <c r="E139" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F139" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G139" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4570,7 +4660,7 @@
         <v>120</v>
       </c>
       <c r="E140" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G140" t="s">
         <v>8</v>
@@ -4596,13 +4686,13 @@
         <v>121</v>
       </c>
       <c r="E141" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F141" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G141" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4625,10 +4715,10 @@
         <v>82</v>
       </c>
       <c r="E142" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F142" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4651,10 +4741,10 @@
         <v>122</v>
       </c>
       <c r="E143" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F143" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4677,7 +4767,7 @@
         <v>123</v>
       </c>
       <c r="G144" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4697,13 +4787,13 @@
         <v>26</v>
       </c>
       <c r="E145" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F145" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="G145" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4726,13 +4816,13 @@
         <v>18</v>
       </c>
       <c r="E146" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F146" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G146" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -4755,13 +4845,13 @@
         <v>70</v>
       </c>
       <c r="E147" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F147" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G147" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4784,7 +4874,7 @@
         <v>124</v>
       </c>
       <c r="E148" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G148" t="s">
         <v>8</v>
@@ -4810,13 +4900,13 @@
         <v>67</v>
       </c>
       <c r="E149" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F149" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G149" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4839,10 +4929,10 @@
         <v>125</v>
       </c>
       <c r="E150" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F150" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -4865,10 +4955,10 @@
         <v>126</v>
       </c>
       <c r="E151" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F151" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4891,7 +4981,7 @@
         <v>127</v>
       </c>
       <c r="G152" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -4911,13 +5001,13 @@
         <v>128</v>
       </c>
       <c r="E153" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F153" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G153" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -4940,13 +5030,13 @@
         <v>129</v>
       </c>
       <c r="E154" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F154" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G154" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H154">
         <v>600</v>
@@ -4969,13 +5059,13 @@
         <v>70</v>
       </c>
       <c r="E155" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F155" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G155" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -4998,7 +5088,7 @@
         <v>130</v>
       </c>
       <c r="E156" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G156" t="s">
         <v>8</v>
@@ -5024,13 +5114,13 @@
         <v>67</v>
       </c>
       <c r="E157" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F157" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G157" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -5053,10 +5143,10 @@
         <v>131</v>
       </c>
       <c r="E158" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F158" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -5079,10 +5169,10 @@
         <v>132</v>
       </c>
       <c r="E159" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F159" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -5105,7 +5195,7 @@
         <v>133</v>
       </c>
       <c r="G160" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -5125,13 +5215,13 @@
         <v>48</v>
       </c>
       <c r="E161" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F161" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G161" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H161">
         <v>600</v>
@@ -5154,13 +5244,13 @@
         <v>102</v>
       </c>
       <c r="E162" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F162" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G162" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H162">
         <v>600</v>
@@ -5180,16 +5270,16 @@
         <v>44580.39166666667</v>
       </c>
       <c r="D163" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="E163" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F163" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G163" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -5209,10 +5299,10 @@
         <v>44580.39166666667</v>
       </c>
       <c r="D164" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E164" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G164" t="s">
         <v>8</v>
@@ -5238,13 +5328,13 @@
         <v>67</v>
       </c>
       <c r="E165" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F165" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G165" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5264,13 +5354,13 @@
         <v>44580.39166666667</v>
       </c>
       <c r="D166" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E166" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F166" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5290,13 +5380,13 @@
         <v>44580.39166666667</v>
       </c>
       <c r="D167" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E167" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F167" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5316,10 +5406,10 @@
         <v>44602</v>
       </c>
       <c r="D168" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G168" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5339,13 +5429,13 @@
         <v>35</v>
       </c>
       <c r="E169" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F169" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G169" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5368,13 +5458,13 @@
         <v>109</v>
       </c>
       <c r="E170" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F170" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G170" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H170">
         <v>600</v>
@@ -5394,16 +5484,16 @@
         <v>44602.38402777778</v>
       </c>
       <c r="D171" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E171" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F171" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G171" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H171">
         <v>600</v>
@@ -5423,10 +5513,10 @@
         <v>44602.38402777778</v>
       </c>
       <c r="D172" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E172" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G172" t="s">
         <v>8</v>
@@ -5452,13 +5542,13 @@
         <v>67</v>
       </c>
       <c r="E173" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F173" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G173" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5478,13 +5568,13 @@
         <v>44602.38402777778</v>
       </c>
       <c r="D174" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E174" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F174" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H174">
         <v>600</v>
@@ -5507,10 +5597,10 @@
         <v>37</v>
       </c>
       <c r="E175" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F175" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5530,10 +5620,10 @@
         <v>44621</v>
       </c>
       <c r="D176" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G176" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5553,13 +5643,13 @@
         <v>58</v>
       </c>
       <c r="E177" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F177" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G177" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H177">
         <v>600</v>
@@ -5579,16 +5669,16 @@
         <v>44621.45347222222</v>
       </c>
       <c r="D178" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E178" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F178" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G178" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H178">
         <v>600</v>
@@ -5611,13 +5701,13 @@
         <v>62</v>
       </c>
       <c r="E179" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F179" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G179" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H179">
         <v>600</v>
@@ -5637,10 +5727,10 @@
         <v>44621.45347222222</v>
       </c>
       <c r="D180" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E180" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G180" t="s">
         <v>8</v>
@@ -5666,13 +5756,13 @@
         <v>67</v>
       </c>
       <c r="E181" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F181" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G181" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H181">
         <v>600</v>
@@ -5692,13 +5782,13 @@
         <v>44621.45347222222</v>
       </c>
       <c r="D182" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E182" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F182" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5718,13 +5808,13 @@
         <v>44621.45347222222</v>
       </c>
       <c r="D183" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E183" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F183" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5744,10 +5834,10 @@
         <v>44656</v>
       </c>
       <c r="D184" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G184" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H184">
         <v>600</v>
@@ -5764,16 +5854,16 @@
         <v>44656.42013888889</v>
       </c>
       <c r="D185" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E185" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F185" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G185" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H185">
         <v>600</v>
@@ -5796,13 +5886,13 @@
         <v>73</v>
       </c>
       <c r="E186" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F186" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G186" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H186">
         <v>600</v>
@@ -5825,13 +5915,13 @@
         <v>62</v>
       </c>
       <c r="E187" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F187" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G187" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H187">
         <v>600</v>
@@ -5851,10 +5941,10 @@
         <v>44656.42013888889</v>
       </c>
       <c r="D188" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E188" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G188" t="s">
         <v>8</v>
@@ -5880,13 +5970,13 @@
         <v>67</v>
       </c>
       <c r="E189" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F189" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G189" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -5909,10 +5999,10 @@
         <v>59</v>
       </c>
       <c r="E190" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F190" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -5935,10 +6025,10 @@
         <v>37</v>
       </c>
       <c r="E191" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F191" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -5958,10 +6048,10 @@
         <v>44767.00048611111</v>
       </c>
       <c r="D192" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G192" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H192">
         <v>600</v>
@@ -5978,16 +6068,16 @@
         <v>44767.4125</v>
       </c>
       <c r="D193" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E193" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F193" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G193" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H193">
         <v>600</v>
@@ -6007,16 +6097,16 @@
         <v>44767.4125</v>
       </c>
       <c r="D194" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E194" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F194" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G194" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H194">
         <v>600</v>
@@ -6036,16 +6126,16 @@
         <v>44767.4125</v>
       </c>
       <c r="D195" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E195" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F195" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G195" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H195">
         <v>600</v>
@@ -6065,10 +6155,10 @@
         <v>44767.4125</v>
       </c>
       <c r="D196" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E196" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G196" t="s">
         <v>8</v>
@@ -6091,16 +6181,16 @@
         <v>44767.4125</v>
       </c>
       <c r="D197" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E197" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F197" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G197" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H197">
         <v>600</v>
@@ -6120,13 +6210,13 @@
         <v>44767.4125</v>
       </c>
       <c r="D198" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E198" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F198" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H198">
         <v>600</v>
@@ -6149,10 +6239,10 @@
         <v>99</v>
       </c>
       <c r="E199" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F199" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H199">
         <v>600</v>
@@ -6172,10 +6262,10 @@
         <v>44774.00048611111</v>
       </c>
       <c r="D200" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G200" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H200">
         <v>600</v>
@@ -6192,16 +6282,16 @@
         <v>44774.49375</v>
       </c>
       <c r="D201" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E201" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F201" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G201" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H201">
         <v>600</v>
@@ -6221,16 +6311,16 @@
         <v>44774.49375</v>
       </c>
       <c r="D202" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E202" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F202" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G202" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H202">
         <v>600</v>
@@ -6250,16 +6340,16 @@
         <v>44774.49375</v>
       </c>
       <c r="D203" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="E203" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F203" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G203" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H203">
         <v>600</v>
@@ -6279,10 +6369,10 @@
         <v>44774.49375</v>
       </c>
       <c r="D204" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E204" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G204" t="s">
         <v>8</v>
@@ -6305,16 +6395,16 @@
         <v>44774.49375</v>
       </c>
       <c r="D205" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E205" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F205" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G205" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H205">
         <v>600</v>
@@ -6337,10 +6427,10 @@
         <v>125</v>
       </c>
       <c r="E206" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F206" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H206">
         <v>600</v>
@@ -6360,13 +6450,13 @@
         <v>44774.49375</v>
       </c>
       <c r="D207" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E207" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F207" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H207">
         <v>600</v>
@@ -6386,10 +6476,10 @@
         <v>44811.00048611111</v>
       </c>
       <c r="D208" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G208" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H208">
         <v>600</v>
@@ -6406,16 +6496,16 @@
         <v>44811.41041666667</v>
       </c>
       <c r="D209" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E209" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F209" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G209" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H209">
         <v>600</v>
@@ -6435,16 +6525,16 @@
         <v>44811.41041666667</v>
       </c>
       <c r="D210" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E210" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F210" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G210" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H210">
         <v>600</v>
@@ -6464,16 +6554,16 @@
         <v>44811.41041666667</v>
       </c>
       <c r="D211" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E211" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F211" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G211" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H211">
         <v>600</v>
@@ -6493,10 +6583,10 @@
         <v>44811.41041666667</v>
       </c>
       <c r="D212" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E212" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G212" t="s">
         <v>8</v>
@@ -6522,13 +6612,13 @@
         <v>53</v>
       </c>
       <c r="E213" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F213" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G213" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H213">
         <v>600</v>
@@ -6551,10 +6641,10 @@
         <v>59</v>
       </c>
       <c r="E214" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F214" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H214">
         <v>600</v>
@@ -6577,10 +6667,10 @@
         <v>92</v>
       </c>
       <c r="E215" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F215" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H215">
         <v>600</v>
@@ -6600,10 +6690,10 @@
         <v>44860.00048611111</v>
       </c>
       <c r="D216" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G216" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H216">
         <v>600</v>
@@ -6620,16 +6710,16 @@
         <v>44860.36458333334</v>
       </c>
       <c r="D217" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E217" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F217" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G217" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H217">
         <v>600</v>
@@ -6652,13 +6742,13 @@
         <v>52</v>
       </c>
       <c r="E218" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F218" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G218" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H218">
         <v>600</v>
@@ -6678,16 +6768,16 @@
         <v>44860.36458333334</v>
       </c>
       <c r="D219" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E219" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F219" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G219" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H219">
         <v>600</v>
@@ -6707,10 +6797,10 @@
         <v>44860.36458333334</v>
       </c>
       <c r="D220" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E220" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G220" t="s">
         <v>8</v>
@@ -6736,13 +6826,13 @@
         <v>67</v>
       </c>
       <c r="E221" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F221" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G221" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H221">
         <v>600</v>
@@ -6765,10 +6855,10 @@
         <v>36</v>
       </c>
       <c r="E222" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F222" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H222">
         <v>600</v>
@@ -6788,13 +6878,13 @@
         <v>44860.36458333334</v>
       </c>
       <c r="D223" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E223" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F223" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H223">
         <v>600</v>
@@ -6814,10 +6904,10 @@
         <v>44886.00048611111</v>
       </c>
       <c r="D224" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G224" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H224">
         <v>600</v>
@@ -6834,16 +6924,16 @@
         <v>44886.37638888889</v>
       </c>
       <c r="D225" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E225" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F225" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G225" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H225">
         <v>600</v>
@@ -6863,16 +6953,16 @@
         <v>44886.37638888889</v>
       </c>
       <c r="D226" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E226" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F226" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G226" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H226">
         <v>600</v>
@@ -6895,13 +6985,13 @@
         <v>40</v>
       </c>
       <c r="E227" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F227" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G227" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H227">
         <v>600</v>
@@ -6921,10 +7011,10 @@
         <v>44886.37638888889</v>
       </c>
       <c r="D228" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E228" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G228" t="s">
         <v>8</v>
@@ -6950,13 +7040,13 @@
         <v>67</v>
       </c>
       <c r="E229" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F229" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G229" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H229">
         <v>600</v>
@@ -6979,10 +7069,10 @@
         <v>24</v>
       </c>
       <c r="E230" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F230" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H230">
         <v>600</v>
@@ -7002,13 +7092,13 @@
         <v>44886.37638888889</v>
       </c>
       <c r="D231" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E231" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F231" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H231">
         <v>600</v>
@@ -7028,10 +7118,10 @@
         <v>44914.00048611111</v>
       </c>
       <c r="D232" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G232" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H232">
         <v>600</v>
@@ -7048,16 +7138,16 @@
         <v>44914.36736111111</v>
       </c>
       <c r="D233" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E233" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F233" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G233" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H233">
         <v>600</v>
@@ -7077,16 +7167,16 @@
         <v>44914.36736111111</v>
       </c>
       <c r="D234" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E234" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F234" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G234" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H234">
         <v>600</v>
@@ -7106,16 +7196,16 @@
         <v>44914.36736111111</v>
       </c>
       <c r="D235" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E235" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F235" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G235" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H235">
         <v>600</v>
@@ -7135,10 +7225,10 @@
         <v>44914.36736111111</v>
       </c>
       <c r="D236" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E236" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G236" t="s">
         <v>8</v>
@@ -7164,13 +7254,13 @@
         <v>67</v>
       </c>
       <c r="E237" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F237" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G237" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H237">
         <v>600</v>
@@ -7190,13 +7280,13 @@
         <v>44914.36736111111</v>
       </c>
       <c r="D238" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E238" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F238" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H238">
         <v>600</v>
@@ -7216,13 +7306,13 @@
         <v>44914.36736111111</v>
       </c>
       <c r="D239" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E239" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F239" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H239">
         <v>600</v>
@@ -7242,10 +7332,10 @@
         <v>44952.00048611111</v>
       </c>
       <c r="D240" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G240" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H240">
         <v>600</v>
@@ -7265,13 +7355,13 @@
         <v>56</v>
       </c>
       <c r="E241" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F241" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G241" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H241">
         <v>600</v>
@@ -7291,16 +7381,16 @@
         <v>44952.35277777778</v>
       </c>
       <c r="D242" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E242" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F242" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G242" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H242">
         <v>600</v>
@@ -7323,13 +7413,13 @@
         <v>70</v>
       </c>
       <c r="E243" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F243" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H243">
         <v>600</v>
@@ -7349,10 +7439,10 @@
         <v>44952.35277777778</v>
       </c>
       <c r="D244" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E244" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G244" t="s">
         <v>8</v>
@@ -7375,16 +7465,16 @@
         <v>44952.35277777778</v>
       </c>
       <c r="D245" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E245" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F245" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G245" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H245">
         <v>600</v>
@@ -7407,10 +7497,10 @@
         <v>131</v>
       </c>
       <c r="E246" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F246" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H246">
         <v>600</v>
@@ -7433,10 +7523,10 @@
         <v>100</v>
       </c>
       <c r="E247" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F247" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H247">
         <v>600</v>
@@ -7456,10 +7546,10 @@
         <v>44978.00048611111</v>
       </c>
       <c r="D248" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G248" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H248">
         <v>600</v>
@@ -7479,13 +7569,13 @@
         <v>56</v>
       </c>
       <c r="E249" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F249" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G249" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H249">
         <v>600</v>
@@ -7508,13 +7598,13 @@
         <v>95</v>
       </c>
       <c r="E250" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F250" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G250" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H250">
         <v>600</v>
@@ -7537,13 +7627,13 @@
         <v>70</v>
       </c>
       <c r="E251" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F251" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G251" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H251">
         <v>600</v>
@@ -7563,10 +7653,10 @@
         <v>44978.40208333333</v>
       </c>
       <c r="D252" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E252" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G252" t="s">
         <v>8</v>
@@ -7592,13 +7682,13 @@
         <v>105</v>
       </c>
       <c r="E253" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F253" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G253" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H253">
         <v>600</v>
@@ -7618,13 +7708,13 @@
         <v>44978.40208333333</v>
       </c>
       <c r="D254" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E254" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F254" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H254">
         <v>600</v>
@@ -7647,10 +7737,10 @@
         <v>25</v>
       </c>
       <c r="E255" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F255" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H255">
         <v>600</v>
@@ -7670,10 +7760,10 @@
         <v>45008.00048611111</v>
       </c>
       <c r="D256" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G256" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H256">
         <v>600</v>
@@ -7690,16 +7780,16 @@
         <v>45008.425</v>
       </c>
       <c r="D257" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E257" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F257" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G257" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H257">
         <v>600</v>
@@ -7719,16 +7809,16 @@
         <v>45008.425</v>
       </c>
       <c r="D258" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E258" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F258" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G258" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H258">
         <v>600</v>
@@ -7751,13 +7841,13 @@
         <v>19</v>
       </c>
       <c r="E259" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F259" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G259" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H259">
         <v>600</v>
@@ -7777,10 +7867,10 @@
         <v>45008.425</v>
       </c>
       <c r="D260" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E260" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G260" t="s">
         <v>8</v>
@@ -7803,16 +7893,16 @@
         <v>45008.425</v>
       </c>
       <c r="D261" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E261" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F261" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G261" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H261">
         <v>600</v>
@@ -7832,13 +7922,13 @@
         <v>45008.425</v>
       </c>
       <c r="D262" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E262" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F262" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H262">
         <v>600</v>
@@ -7858,13 +7948,13 @@
         <v>45008.425</v>
       </c>
       <c r="D263" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E263" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F263" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H263">
         <v>600</v>
@@ -7884,10 +7974,10 @@
         <v>45027.00048611111</v>
       </c>
       <c r="D264" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G264" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H264">
         <v>600</v>
@@ -7907,13 +7997,13 @@
         <v>26</v>
       </c>
       <c r="E265" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F265" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G265" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H265">
         <v>600</v>
@@ -7933,16 +8023,16 @@
         <v>45027.40277777778</v>
       </c>
       <c r="D266" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E266" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F266" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G266" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H266">
         <v>600</v>
@@ -7965,13 +8055,13 @@
         <v>62</v>
       </c>
       <c r="E267" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F267" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G267" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H267">
         <v>600</v>
@@ -7991,10 +8081,10 @@
         <v>45027.40277777778</v>
       </c>
       <c r="D268" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E268" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G268" t="s">
         <v>8</v>
@@ -8017,16 +8107,16 @@
         <v>45027.40277777778</v>
       </c>
       <c r="D269" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E269" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F269" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G269" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H269">
         <v>600</v>
@@ -8049,10 +8139,10 @@
         <v>75</v>
       </c>
       <c r="E270" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F270" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H270">
         <v>500</v>
@@ -8072,13 +8162,13 @@
         <v>45027.40277777778</v>
       </c>
       <c r="D271" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E271" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F271" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H271">
         <v>600</v>
@@ -8098,10 +8188,10 @@
         <v>45127.00048611111</v>
       </c>
       <c r="D272" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G272" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H272">
         <v>600</v>
@@ -8118,16 +8208,16 @@
         <v>45127.47222222222</v>
       </c>
       <c r="D273" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E273" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F273" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G273" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H273">
         <v>600</v>
@@ -8150,13 +8240,13 @@
         <v>95</v>
       </c>
       <c r="E274" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F274" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G274" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H274">
         <v>600</v>
@@ -8179,13 +8269,13 @@
         <v>40</v>
       </c>
       <c r="E275" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F275" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G275" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H275">
         <v>600</v>
@@ -8205,10 +8295,10 @@
         <v>45127.47222222222</v>
       </c>
       <c r="D276" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E276" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G276" t="s">
         <v>8</v>
@@ -8231,16 +8321,16 @@
         <v>45127.47222222222</v>
       </c>
       <c r="D277" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E277" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F277" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G277" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H277">
         <v>600</v>
@@ -8263,10 +8353,10 @@
         <v>125</v>
       </c>
       <c r="E278" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F278" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H278">
         <v>600</v>
@@ -8286,13 +8376,13 @@
         <v>45127.47222222222</v>
       </c>
       <c r="D279" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E279" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F279" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H279">
         <v>600</v>
@@ -8312,10 +8402,10 @@
         <v>45155.00048611111</v>
       </c>
       <c r="D280" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G280" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H280">
         <v>600</v>
@@ -8332,16 +8422,16 @@
         <v>45155.41527777778</v>
       </c>
       <c r="D281" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E281" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F281" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G281" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H281">
         <v>500</v>
@@ -8364,13 +8454,13 @@
         <v>52</v>
       </c>
       <c r="E282" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F282" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G282" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H282">
         <v>600</v>
@@ -8390,16 +8480,16 @@
         <v>45155.41527777778</v>
       </c>
       <c r="D283" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="E283" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F283" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G283" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H283">
         <v>600</v>
@@ -8422,7 +8512,7 @@
         <v>120</v>
       </c>
       <c r="E284" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G284" t="s">
         <v>8</v>
@@ -8445,16 +8535,16 @@
         <v>45155.41527777778</v>
       </c>
       <c r="D285" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E285" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F285" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G285" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H285">
         <v>600</v>
@@ -8477,10 +8567,10 @@
         <v>125</v>
       </c>
       <c r="E286" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F286" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H286">
         <v>600</v>
@@ -8500,13 +8590,13 @@
         <v>45155.41527777778</v>
       </c>
       <c r="D287" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E287" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F287" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H287">
         <v>600</v>
@@ -8526,10 +8616,10 @@
         <v>45197.00048611111</v>
       </c>
       <c r="D288" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G288" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H288">
         <v>600</v>
@@ -8546,16 +8636,16 @@
         <v>45197.3125</v>
       </c>
       <c r="D289" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E289" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F289" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G289" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H289">
         <v>500</v>
@@ -8575,16 +8665,16 @@
         <v>45197.3125</v>
       </c>
       <c r="D290" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E290" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F290" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G290" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H290">
         <v>600</v>
@@ -8604,16 +8694,16 @@
         <v>45197.3125</v>
       </c>
       <c r="D291" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E291" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F291" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G291" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H291">
         <v>600</v>
@@ -8633,10 +8723,10 @@
         <v>45197.3125</v>
       </c>
       <c r="D292" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E292" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G292" t="s">
         <v>8</v>
@@ -8659,16 +8749,16 @@
         <v>45197.3125</v>
       </c>
       <c r="D293" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E293" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F293" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G293" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H293">
         <v>600</v>
@@ -8688,13 +8778,13 @@
         <v>45197.3125</v>
       </c>
       <c r="D294" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E294" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F294" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H294">
         <v>600</v>
@@ -8717,10 +8807,10 @@
         <v>107</v>
       </c>
       <c r="E295" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F295" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H295">
         <v>600</v>
@@ -8740,10 +8830,10 @@
         <v>45210.00048611111</v>
       </c>
       <c r="D296" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G296" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H296">
         <v>600</v>
@@ -8760,16 +8850,16 @@
         <v>45210.44930555556</v>
       </c>
       <c r="D297" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E297" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F297" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G297" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H297">
         <v>500</v>
@@ -8789,16 +8879,16 @@
         <v>45210.44930555556</v>
       </c>
       <c r="D298" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E298" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F298" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G298" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H298">
         <v>600</v>
@@ -8821,13 +8911,13 @@
         <v>19</v>
       </c>
       <c r="E299" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F299" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G299" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H299">
         <v>600</v>
@@ -8847,10 +8937,10 @@
         <v>45210.44930555556</v>
       </c>
       <c r="D300" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E300" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G300" t="s">
         <v>8</v>
@@ -8873,16 +8963,16 @@
         <v>45210.44930555556</v>
       </c>
       <c r="D301" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E301" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F301" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G301" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H301">
         <v>600</v>
@@ -8905,10 +8995,10 @@
         <v>41</v>
       </c>
       <c r="E302" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F302" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H302">
         <v>600</v>
@@ -8931,10 +9021,10 @@
         <v>60</v>
       </c>
       <c r="E303" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F303" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H303">
         <v>600</v>
@@ -8954,10 +9044,10 @@
         <v>45253.00048611111</v>
       </c>
       <c r="D304" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G304" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H304">
         <v>600</v>
@@ -8977,13 +9067,13 @@
         <v>58</v>
       </c>
       <c r="E305" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F305" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G305" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H305">
         <v>600</v>
@@ -9003,16 +9093,16 @@
         <v>45253.35902777778</v>
       </c>
       <c r="D306" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E306" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F306" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G306" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H306">
         <v>600</v>
@@ -9035,13 +9125,13 @@
         <v>19</v>
       </c>
       <c r="E307" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F307" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G307" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H307">
         <v>600</v>
@@ -9061,10 +9151,10 @@
         <v>45253.35902777778</v>
       </c>
       <c r="D308" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E308" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G308" t="s">
         <v>8</v>
@@ -9087,16 +9177,16 @@
         <v>45253.35902777778</v>
       </c>
       <c r="D309" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E309" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F309" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G309" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H309">
         <v>600</v>
@@ -9116,13 +9206,13 @@
         <v>45253.35902777778</v>
       </c>
       <c r="D310" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E310" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F310" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H310">
         <v>600</v>
@@ -9142,13 +9232,13 @@
         <v>45253.35902777778</v>
       </c>
       <c r="D311" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E311" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F311" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H311">
         <v>500</v>
@@ -9168,10 +9258,10 @@
         <v>45280.00048611111</v>
       </c>
       <c r="D312" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G312" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H312">
         <v>600</v>
@@ -9191,13 +9281,13 @@
         <v>101</v>
       </c>
       <c r="E313" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F313" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G313" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="H313">
         <v>600</v>
@@ -9217,16 +9307,16 @@
         <v>45280.41597222222</v>
       </c>
       <c r="D314" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E314" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F314" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G314" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H314">
         <v>600</v>
@@ -9246,16 +9336,16 @@
         <v>45280.41597222222</v>
       </c>
       <c r="D315" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E315" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F315" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G315" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H315">
         <v>600</v>
@@ -9278,7 +9368,7 @@
         <v>124</v>
       </c>
       <c r="E316" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G316" t="s">
         <v>8</v>
@@ -9304,13 +9394,13 @@
         <v>114</v>
       </c>
       <c r="E317" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F317" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G317" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H317">
         <v>600</v>
@@ -9333,10 +9423,10 @@
         <v>41</v>
       </c>
       <c r="E318" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F318" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H318">
         <v>600</v>
@@ -9356,19 +9446,1731 @@
         <v>45280.41597222222</v>
       </c>
       <c r="D319" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E319" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F319" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="H319">
         <v>600</v>
       </c>
       <c r="I319">
         <v>8.33</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" t="s">
+        <v>9</v>
+      </c>
+      <c r="B320" t="s">
+        <v>16</v>
+      </c>
+      <c r="C320" s="2">
+        <v>45308.00048611111</v>
+      </c>
+      <c r="D320" t="s">
+        <v>222</v>
+      </c>
+      <c r="G320" t="s">
+        <v>266</v>
+      </c>
+      <c r="H320">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" t="s">
+        <v>9</v>
+      </c>
+      <c r="B321" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" s="2">
+        <v>45308.39166666667</v>
+      </c>
+      <c r="D321" t="s">
+        <v>48</v>
+      </c>
+      <c r="E321" t="s">
+        <v>249</v>
+      </c>
+      <c r="F321" t="s">
+        <v>259</v>
+      </c>
+      <c r="G321" t="s">
+        <v>262</v>
+      </c>
+      <c r="H321">
+        <v>600</v>
+      </c>
+      <c r="I321">
+        <v>8.449999999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" t="s">
+        <v>9</v>
+      </c>
+      <c r="B322" t="s">
+        <v>11</v>
+      </c>
+      <c r="C322" s="2">
+        <v>45308.39166666667</v>
+      </c>
+      <c r="D322" t="s">
+        <v>223</v>
+      </c>
+      <c r="E322" t="s">
+        <v>249</v>
+      </c>
+      <c r="F322" t="s">
+        <v>251</v>
+      </c>
+      <c r="G322" t="s">
+        <v>263</v>
+      </c>
+      <c r="H322">
+        <v>600</v>
+      </c>
+      <c r="I322">
+        <v>8.449999999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" t="s">
+        <v>12</v>
+      </c>
+      <c r="C323" s="2">
+        <v>45308.39166666667</v>
+      </c>
+      <c r="D323" t="s">
+        <v>62</v>
+      </c>
+      <c r="E323" t="s">
+        <v>249</v>
+      </c>
+      <c r="F323" t="s">
+        <v>252</v>
+      </c>
+      <c r="G323" t="s">
+        <v>264</v>
+      </c>
+      <c r="H323">
+        <v>600</v>
+      </c>
+      <c r="I323">
+        <v>8.449999999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" t="s">
+        <v>8</v>
+      </c>
+      <c r="C324" s="2">
+        <v>45308.39166666667</v>
+      </c>
+      <c r="D324" t="s">
+        <v>224</v>
+      </c>
+      <c r="E324" t="s">
+        <v>249</v>
+      </c>
+      <c r="G324" t="s">
+        <v>8</v>
+      </c>
+      <c r="H324">
+        <v>600</v>
+      </c>
+      <c r="I324">
+        <v>8.449999999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" t="s">
+        <v>9</v>
+      </c>
+      <c r="B325" t="s">
+        <v>15</v>
+      </c>
+      <c r="C325" s="2">
+        <v>45308.39166666667</v>
+      </c>
+      <c r="D325" t="s">
+        <v>187</v>
+      </c>
+      <c r="E325" t="s">
+        <v>249</v>
+      </c>
+      <c r="F325" t="s">
+        <v>260</v>
+      </c>
+      <c r="G325" t="s">
+        <v>265</v>
+      </c>
+      <c r="H325">
+        <v>600</v>
+      </c>
+      <c r="I325">
+        <v>8.449999999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" t="s">
+        <v>9</v>
+      </c>
+      <c r="B326" t="s">
+        <v>13</v>
+      </c>
+      <c r="C326" s="2">
+        <v>45308.39166666667</v>
+      </c>
+      <c r="D326" t="s">
+        <v>141</v>
+      </c>
+      <c r="E326" t="s">
+        <v>249</v>
+      </c>
+      <c r="F326" t="s">
+        <v>257</v>
+      </c>
+      <c r="H326">
+        <v>600</v>
+      </c>
+      <c r="I326">
+        <v>8.449999999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" t="s">
+        <v>9</v>
+      </c>
+      <c r="B327" t="s">
+        <v>14</v>
+      </c>
+      <c r="C327" s="2">
+        <v>45308.39166666667</v>
+      </c>
+      <c r="D327" t="s">
+        <v>37</v>
+      </c>
+      <c r="E327" t="s">
+        <v>249</v>
+      </c>
+      <c r="F327" t="s">
+        <v>258</v>
+      </c>
+      <c r="H327">
+        <v>600</v>
+      </c>
+      <c r="I327">
+        <v>8.449999999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" t="s">
+        <v>16</v>
+      </c>
+      <c r="C328" s="2">
+        <v>45344.00048611111</v>
+      </c>
+      <c r="D328" t="s">
+        <v>225</v>
+      </c>
+      <c r="G328" t="s">
+        <v>266</v>
+      </c>
+      <c r="H328">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" t="s">
+        <v>9</v>
+      </c>
+      <c r="B329" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" s="2">
+        <v>45344.42430555556</v>
+      </c>
+      <c r="D329" t="s">
+        <v>226</v>
+      </c>
+      <c r="E329" t="s">
+        <v>249</v>
+      </c>
+      <c r="F329" t="s">
+        <v>259</v>
+      </c>
+      <c r="G329" t="s">
+        <v>262</v>
+      </c>
+      <c r="H329">
+        <v>600</v>
+      </c>
+      <c r="I329">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" t="s">
+        <v>9</v>
+      </c>
+      <c r="B330" t="s">
+        <v>11</v>
+      </c>
+      <c r="C330" s="2">
+        <v>45344.42430555556</v>
+      </c>
+      <c r="D330" t="s">
+        <v>185</v>
+      </c>
+      <c r="E330" t="s">
+        <v>249</v>
+      </c>
+      <c r="F330" t="s">
+        <v>251</v>
+      </c>
+      <c r="G330" t="s">
+        <v>263</v>
+      </c>
+      <c r="H330">
+        <v>600</v>
+      </c>
+      <c r="I330">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" t="s">
+        <v>9</v>
+      </c>
+      <c r="B331" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331" s="2">
+        <v>45344.42430555556</v>
+      </c>
+      <c r="D331" t="s">
+        <v>171</v>
+      </c>
+      <c r="E331" t="s">
+        <v>249</v>
+      </c>
+      <c r="F331" t="s">
+        <v>252</v>
+      </c>
+      <c r="G331" t="s">
+        <v>264</v>
+      </c>
+      <c r="H331">
+        <v>600</v>
+      </c>
+      <c r="I331">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" t="s">
+        <v>9</v>
+      </c>
+      <c r="B332" t="s">
+        <v>8</v>
+      </c>
+      <c r="C332" s="2">
+        <v>45344.42430555556</v>
+      </c>
+      <c r="D332" t="s">
+        <v>227</v>
+      </c>
+      <c r="E332" t="s">
+        <v>249</v>
+      </c>
+      <c r="G332" t="s">
+        <v>8</v>
+      </c>
+      <c r="H332">
+        <v>600</v>
+      </c>
+      <c r="I332">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" t="s">
+        <v>15</v>
+      </c>
+      <c r="C333" s="2">
+        <v>45344.42430555556</v>
+      </c>
+      <c r="D333" t="s">
+        <v>187</v>
+      </c>
+      <c r="E333" t="s">
+        <v>249</v>
+      </c>
+      <c r="F333" t="s">
+        <v>260</v>
+      </c>
+      <c r="G333" t="s">
+        <v>265</v>
+      </c>
+      <c r="H333">
+        <v>600</v>
+      </c>
+      <c r="I333">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334" t="s">
+        <v>13</v>
+      </c>
+      <c r="C334" s="2">
+        <v>45344.42430555556</v>
+      </c>
+      <c r="D334" t="s">
+        <v>75</v>
+      </c>
+      <c r="E334" t="s">
+        <v>249</v>
+      </c>
+      <c r="F334" t="s">
+        <v>257</v>
+      </c>
+      <c r="H334">
+        <v>600</v>
+      </c>
+      <c r="I334">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" t="s">
+        <v>9</v>
+      </c>
+      <c r="B335" t="s">
+        <v>14</v>
+      </c>
+      <c r="C335" s="2">
+        <v>45344.42430555556</v>
+      </c>
+      <c r="D335" t="s">
+        <v>196</v>
+      </c>
+      <c r="E335" t="s">
+        <v>249</v>
+      </c>
+      <c r="F335" t="s">
+        <v>258</v>
+      </c>
+      <c r="H335">
+        <v>600</v>
+      </c>
+      <c r="I335">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" t="s">
+        <v>16</v>
+      </c>
+      <c r="C336" s="2">
+        <v>45363.00048611111</v>
+      </c>
+      <c r="D336" t="s">
+        <v>228</v>
+      </c>
+      <c r="G336" t="s">
+        <v>266</v>
+      </c>
+      <c r="H336">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" t="s">
+        <v>10</v>
+      </c>
+      <c r="C337" s="2">
+        <v>45363.41597222222</v>
+      </c>
+      <c r="D337" t="s">
+        <v>229</v>
+      </c>
+      <c r="E337" t="s">
+        <v>249</v>
+      </c>
+      <c r="F337" t="s">
+        <v>259</v>
+      </c>
+      <c r="G337" t="s">
+        <v>262</v>
+      </c>
+      <c r="H337">
+        <v>600</v>
+      </c>
+      <c r="I337">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>11</v>
+      </c>
+      <c r="C338" s="2">
+        <v>45363.41597222222</v>
+      </c>
+      <c r="D338" t="s">
+        <v>206</v>
+      </c>
+      <c r="E338" t="s">
+        <v>249</v>
+      </c>
+      <c r="F338" t="s">
+        <v>251</v>
+      </c>
+      <c r="G338" t="s">
+        <v>263</v>
+      </c>
+      <c r="H338">
+        <v>600</v>
+      </c>
+      <c r="I338">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" t="s">
+        <v>12</v>
+      </c>
+      <c r="C339" s="2">
+        <v>45363.41597222222</v>
+      </c>
+      <c r="D339" t="s">
+        <v>160</v>
+      </c>
+      <c r="E339" t="s">
+        <v>249</v>
+      </c>
+      <c r="F339" t="s">
+        <v>252</v>
+      </c>
+      <c r="G339" t="s">
+        <v>264</v>
+      </c>
+      <c r="H339">
+        <v>600</v>
+      </c>
+      <c r="I339">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
+        <v>9</v>
+      </c>
+      <c r="B340" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340" s="2">
+        <v>45363.41597222222</v>
+      </c>
+      <c r="D340" t="s">
+        <v>230</v>
+      </c>
+      <c r="E340" t="s">
+        <v>249</v>
+      </c>
+      <c r="G340" t="s">
+        <v>8</v>
+      </c>
+      <c r="H340">
+        <v>600</v>
+      </c>
+      <c r="I340">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341" s="2">
+        <v>45363.41597222222</v>
+      </c>
+      <c r="D341" t="s">
+        <v>38</v>
+      </c>
+      <c r="E341" t="s">
+        <v>249</v>
+      </c>
+      <c r="F341" t="s">
+        <v>260</v>
+      </c>
+      <c r="G341" t="s">
+        <v>265</v>
+      </c>
+      <c r="H341">
+        <v>600</v>
+      </c>
+      <c r="I341">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>13</v>
+      </c>
+      <c r="C342" s="2">
+        <v>45363.41597222222</v>
+      </c>
+      <c r="D342" t="s">
+        <v>231</v>
+      </c>
+      <c r="E342" t="s">
+        <v>249</v>
+      </c>
+      <c r="F342" t="s">
+        <v>257</v>
+      </c>
+      <c r="H342">
+        <v>600</v>
+      </c>
+      <c r="I342">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" t="s">
+        <v>14</v>
+      </c>
+      <c r="C343" s="2">
+        <v>45363.41597222222</v>
+      </c>
+      <c r="D343" t="s">
+        <v>232</v>
+      </c>
+      <c r="E343" t="s">
+        <v>249</v>
+      </c>
+      <c r="F343" t="s">
+        <v>258</v>
+      </c>
+      <c r="H343">
+        <v>600</v>
+      </c>
+      <c r="I343">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" t="s">
+        <v>9</v>
+      </c>
+      <c r="B344" t="s">
+        <v>16</v>
+      </c>
+      <c r="C344" s="2">
+        <v>45398.00048611111</v>
+      </c>
+      <c r="D344" t="s">
+        <v>233</v>
+      </c>
+      <c r="G344" t="s">
+        <v>266</v>
+      </c>
+      <c r="H344">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>9</v>
+      </c>
+      <c r="B345" t="s">
+        <v>10</v>
+      </c>
+      <c r="C345" s="2">
+        <v>45398.41041666667</v>
+      </c>
+      <c r="D345" t="s">
+        <v>114</v>
+      </c>
+      <c r="E345" t="s">
+        <v>249</v>
+      </c>
+      <c r="F345" t="s">
+        <v>259</v>
+      </c>
+      <c r="G345" t="s">
+        <v>262</v>
+      </c>
+      <c r="H345">
+        <v>600</v>
+      </c>
+      <c r="I345">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" t="s">
+        <v>11</v>
+      </c>
+      <c r="C346" s="2">
+        <v>45398.41041666667</v>
+      </c>
+      <c r="D346" t="s">
+        <v>73</v>
+      </c>
+      <c r="E346" t="s">
+        <v>249</v>
+      </c>
+      <c r="F346" t="s">
+        <v>251</v>
+      </c>
+      <c r="G346" t="s">
+        <v>263</v>
+      </c>
+      <c r="H346">
+        <v>600</v>
+      </c>
+      <c r="I346">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" t="s">
+        <v>12</v>
+      </c>
+      <c r="C347" s="2">
+        <v>45398.41041666667</v>
+      </c>
+      <c r="D347" t="s">
+        <v>234</v>
+      </c>
+      <c r="E347" t="s">
+        <v>249</v>
+      </c>
+      <c r="F347" t="s">
+        <v>252</v>
+      </c>
+      <c r="G347" t="s">
+        <v>264</v>
+      </c>
+      <c r="H347">
+        <v>600</v>
+      </c>
+      <c r="I347">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" t="s">
+        <v>8</v>
+      </c>
+      <c r="C348" s="2">
+        <v>45398.41041666667</v>
+      </c>
+      <c r="D348" t="s">
+        <v>235</v>
+      </c>
+      <c r="E348" t="s">
+        <v>249</v>
+      </c>
+      <c r="G348" t="s">
+        <v>8</v>
+      </c>
+      <c r="H348">
+        <v>600</v>
+      </c>
+      <c r="I348">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>9</v>
+      </c>
+      <c r="B349" t="s">
+        <v>15</v>
+      </c>
+      <c r="C349" s="2">
+        <v>45398.41041666667</v>
+      </c>
+      <c r="D349" t="s">
+        <v>236</v>
+      </c>
+      <c r="E349" t="s">
+        <v>249</v>
+      </c>
+      <c r="F349" t="s">
+        <v>260</v>
+      </c>
+      <c r="G349" t="s">
+        <v>265</v>
+      </c>
+      <c r="H349">
+        <v>600</v>
+      </c>
+      <c r="I349">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>13</v>
+      </c>
+      <c r="C350" s="2">
+        <v>45398.41041666667</v>
+      </c>
+      <c r="D350" t="s">
+        <v>237</v>
+      </c>
+      <c r="E350" t="s">
+        <v>249</v>
+      </c>
+      <c r="F350" t="s">
+        <v>257</v>
+      </c>
+      <c r="H350">
+        <v>600</v>
+      </c>
+      <c r="I350">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351" t="s">
+        <v>14</v>
+      </c>
+      <c r="C351" s="2">
+        <v>45398.41041666667</v>
+      </c>
+      <c r="D351" t="s">
+        <v>221</v>
+      </c>
+      <c r="E351" t="s">
+        <v>249</v>
+      </c>
+      <c r="F351" t="s">
+        <v>258</v>
+      </c>
+      <c r="H351">
+        <v>600</v>
+      </c>
+      <c r="I351">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" t="s">
+        <v>16</v>
+      </c>
+      <c r="C352" s="2">
+        <v>45511.00048611111</v>
+      </c>
+      <c r="D352" t="s">
+        <v>238</v>
+      </c>
+      <c r="G352" t="s">
+        <v>266</v>
+      </c>
+      <c r="H352">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>9</v>
+      </c>
+      <c r="B353" t="s">
+        <v>10</v>
+      </c>
+      <c r="C353" s="2">
+        <v>45511.38194444445</v>
+      </c>
+      <c r="D353" t="s">
+        <v>239</v>
+      </c>
+      <c r="E353" t="s">
+        <v>249</v>
+      </c>
+      <c r="F353" t="s">
+        <v>261</v>
+      </c>
+      <c r="G353" t="s">
+        <v>262</v>
+      </c>
+      <c r="H353">
+        <v>600</v>
+      </c>
+      <c r="I353">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" t="s">
+        <v>11</v>
+      </c>
+      <c r="C354" s="2">
+        <v>45511.38194444445</v>
+      </c>
+      <c r="D354" t="s">
+        <v>240</v>
+      </c>
+      <c r="E354" t="s">
+        <v>249</v>
+      </c>
+      <c r="F354" t="s">
+        <v>251</v>
+      </c>
+      <c r="G354" t="s">
+        <v>263</v>
+      </c>
+      <c r="H354">
+        <v>600</v>
+      </c>
+      <c r="I354">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" t="s">
+        <v>12</v>
+      </c>
+      <c r="C355" s="2">
+        <v>45511.38194444445</v>
+      </c>
+      <c r="D355" t="s">
+        <v>70</v>
+      </c>
+      <c r="E355" t="s">
+        <v>249</v>
+      </c>
+      <c r="F355" t="s">
+        <v>252</v>
+      </c>
+      <c r="G355" t="s">
+        <v>264</v>
+      </c>
+      <c r="H355">
+        <v>600</v>
+      </c>
+      <c r="I355">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>8</v>
+      </c>
+      <c r="C356" s="2">
+        <v>45511.38194444445</v>
+      </c>
+      <c r="D356" t="s">
+        <v>116</v>
+      </c>
+      <c r="E356" t="s">
+        <v>249</v>
+      </c>
+      <c r="G356" t="s">
+        <v>8</v>
+      </c>
+      <c r="H356">
+        <v>600</v>
+      </c>
+      <c r="I356">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" t="s">
+        <v>15</v>
+      </c>
+      <c r="C357" s="2">
+        <v>45511.38194444445</v>
+      </c>
+      <c r="D357" t="s">
+        <v>105</v>
+      </c>
+      <c r="E357" t="s">
+        <v>249</v>
+      </c>
+      <c r="F357" t="s">
+        <v>260</v>
+      </c>
+      <c r="G357" t="s">
+        <v>265</v>
+      </c>
+      <c r="H357">
+        <v>600</v>
+      </c>
+      <c r="I357">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>13</v>
+      </c>
+      <c r="C358" s="2">
+        <v>45511.38194444445</v>
+      </c>
+      <c r="D358" t="s">
+        <v>231</v>
+      </c>
+      <c r="E358" t="s">
+        <v>249</v>
+      </c>
+      <c r="F358" t="s">
+        <v>257</v>
+      </c>
+      <c r="H358">
+        <v>600</v>
+      </c>
+      <c r="I358">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" t="s">
+        <v>14</v>
+      </c>
+      <c r="C359" s="2">
+        <v>45511.38194444445</v>
+      </c>
+      <c r="D359" t="s">
+        <v>99</v>
+      </c>
+      <c r="E359" t="s">
+        <v>249</v>
+      </c>
+      <c r="F359" t="s">
+        <v>258</v>
+      </c>
+      <c r="H359">
+        <v>600</v>
+      </c>
+      <c r="I359">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" t="s">
+        <v>16</v>
+      </c>
+      <c r="C360" s="2">
+        <v>45558.00048611111</v>
+      </c>
+      <c r="D360" t="s">
+        <v>241</v>
+      </c>
+      <c r="G360" t="s">
+        <v>266</v>
+      </c>
+      <c r="H360">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" t="s">
+        <v>10</v>
+      </c>
+      <c r="C361" s="2">
+        <v>45558.39861111111</v>
+      </c>
+      <c r="D361" t="s">
+        <v>239</v>
+      </c>
+      <c r="E361" t="s">
+        <v>249</v>
+      </c>
+      <c r="F361" t="s">
+        <v>259</v>
+      </c>
+      <c r="G361" t="s">
+        <v>262</v>
+      </c>
+      <c r="H361">
+        <v>600</v>
+      </c>
+      <c r="I361">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" t="s">
+        <v>11</v>
+      </c>
+      <c r="C362" s="2">
+        <v>45558.39861111111</v>
+      </c>
+      <c r="D362" t="s">
+        <v>152</v>
+      </c>
+      <c r="E362" t="s">
+        <v>249</v>
+      </c>
+      <c r="F362" t="s">
+        <v>251</v>
+      </c>
+      <c r="G362" t="s">
+        <v>263</v>
+      </c>
+      <c r="H362">
+        <v>600</v>
+      </c>
+      <c r="I362">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" t="s">
+        <v>12</v>
+      </c>
+      <c r="C363" s="2">
+        <v>45558.39861111111</v>
+      </c>
+      <c r="D363" t="s">
+        <v>160</v>
+      </c>
+      <c r="E363" t="s">
+        <v>249</v>
+      </c>
+      <c r="F363" t="s">
+        <v>252</v>
+      </c>
+      <c r="G363" t="s">
+        <v>264</v>
+      </c>
+      <c r="H363">
+        <v>600</v>
+      </c>
+      <c r="I363">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" t="s">
+        <v>8</v>
+      </c>
+      <c r="C364" s="2">
+        <v>45558.39861111111</v>
+      </c>
+      <c r="D364" t="s">
+        <v>242</v>
+      </c>
+      <c r="E364" t="s">
+        <v>249</v>
+      </c>
+      <c r="G364" t="s">
+        <v>8</v>
+      </c>
+      <c r="H364">
+        <v>600</v>
+      </c>
+      <c r="I364">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" t="s">
+        <v>15</v>
+      </c>
+      <c r="C365" s="2">
+        <v>45558.39861111111</v>
+      </c>
+      <c r="D365" t="s">
+        <v>236</v>
+      </c>
+      <c r="E365" t="s">
+        <v>249</v>
+      </c>
+      <c r="F365" t="s">
+        <v>260</v>
+      </c>
+      <c r="G365" t="s">
+        <v>265</v>
+      </c>
+      <c r="H365">
+        <v>600</v>
+      </c>
+      <c r="I365">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>13</v>
+      </c>
+      <c r="C366" s="2">
+        <v>45558.39861111111</v>
+      </c>
+      <c r="D366" t="s">
+        <v>131</v>
+      </c>
+      <c r="E366" t="s">
+        <v>249</v>
+      </c>
+      <c r="F366" t="s">
+        <v>257</v>
+      </c>
+      <c r="H366">
+        <v>600</v>
+      </c>
+      <c r="I366">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>14</v>
+      </c>
+      <c r="C367" s="2">
+        <v>45558.39861111111</v>
+      </c>
+      <c r="D367" t="s">
+        <v>132</v>
+      </c>
+      <c r="E367" t="s">
+        <v>249</v>
+      </c>
+      <c r="F367" t="s">
+        <v>258</v>
+      </c>
+      <c r="H367">
+        <v>600</v>
+      </c>
+      <c r="I367">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" t="s">
+        <v>16</v>
+      </c>
+      <c r="C368" s="2">
+        <v>45587.00048611111</v>
+      </c>
+      <c r="D368" t="s">
+        <v>243</v>
+      </c>
+      <c r="G368" t="s">
+        <v>266</v>
+      </c>
+      <c r="H368">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369" t="s">
+        <v>10</v>
+      </c>
+      <c r="C369" s="2">
+        <v>45587.39861111111</v>
+      </c>
+      <c r="D369" t="s">
+        <v>244</v>
+      </c>
+      <c r="E369" t="s">
+        <v>249</v>
+      </c>
+      <c r="F369" t="s">
+        <v>259</v>
+      </c>
+      <c r="G369" t="s">
+        <v>262</v>
+      </c>
+      <c r="H369">
+        <v>600</v>
+      </c>
+      <c r="I369">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" t="s">
+        <v>11</v>
+      </c>
+      <c r="C370" s="2">
+        <v>45587.39861111111</v>
+      </c>
+      <c r="D370" t="s">
+        <v>89</v>
+      </c>
+      <c r="E370" t="s">
+        <v>249</v>
+      </c>
+      <c r="F370" t="s">
+        <v>251</v>
+      </c>
+      <c r="G370" t="s">
+        <v>263</v>
+      </c>
+      <c r="H370">
+        <v>600</v>
+      </c>
+      <c r="I370">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>12</v>
+      </c>
+      <c r="C371" s="2">
+        <v>45587.39861111111</v>
+      </c>
+      <c r="D371" t="s">
+        <v>171</v>
+      </c>
+      <c r="E371" t="s">
+        <v>249</v>
+      </c>
+      <c r="F371" t="s">
+        <v>252</v>
+      </c>
+      <c r="G371" t="s">
+        <v>264</v>
+      </c>
+      <c r="H371">
+        <v>600</v>
+      </c>
+      <c r="I371">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>9</v>
+      </c>
+      <c r="B372" t="s">
+        <v>8</v>
+      </c>
+      <c r="C372" s="2">
+        <v>45587.39861111111</v>
+      </c>
+      <c r="D372" t="s">
+        <v>245</v>
+      </c>
+      <c r="E372" t="s">
+        <v>249</v>
+      </c>
+      <c r="G372" t="s">
+        <v>8</v>
+      </c>
+      <c r="H372">
+        <v>600</v>
+      </c>
+      <c r="I372">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>15</v>
+      </c>
+      <c r="C373" s="2">
+        <v>45587.39861111111</v>
+      </c>
+      <c r="D373" t="s">
+        <v>187</v>
+      </c>
+      <c r="E373" t="s">
+        <v>249</v>
+      </c>
+      <c r="F373" t="s">
+        <v>260</v>
+      </c>
+      <c r="G373" t="s">
+        <v>265</v>
+      </c>
+      <c r="H373">
+        <v>600</v>
+      </c>
+      <c r="I373">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" t="s">
+        <v>13</v>
+      </c>
+      <c r="C374" s="2">
+        <v>45587.39861111111</v>
+      </c>
+      <c r="D374" t="s">
+        <v>246</v>
+      </c>
+      <c r="E374" t="s">
+        <v>249</v>
+      </c>
+      <c r="F374" t="s">
+        <v>257</v>
+      </c>
+      <c r="H374">
+        <v>600</v>
+      </c>
+      <c r="I374">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>9</v>
+      </c>
+      <c r="B375" t="s">
+        <v>14</v>
+      </c>
+      <c r="C375" s="2">
+        <v>45587.39861111111</v>
+      </c>
+      <c r="D375" t="s">
+        <v>126</v>
+      </c>
+      <c r="E375" t="s">
+        <v>249</v>
+      </c>
+      <c r="F375" t="s">
+        <v>258</v>
+      </c>
+      <c r="H375">
+        <v>600</v>
+      </c>
+      <c r="I375">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" t="s">
+        <v>16</v>
+      </c>
+      <c r="C376" s="2">
+        <v>45636.00048611111</v>
+      </c>
+      <c r="D376" t="s">
+        <v>247</v>
+      </c>
+      <c r="G376" t="s">
+        <v>266</v>
+      </c>
+      <c r="H376">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" t="s">
+        <v>10</v>
+      </c>
+      <c r="C377" s="2">
+        <v>45636.38680555556</v>
+      </c>
+      <c r="D377" t="s">
+        <v>58</v>
+      </c>
+      <c r="E377" t="s">
+        <v>249</v>
+      </c>
+      <c r="F377" t="s">
+        <v>259</v>
+      </c>
+      <c r="G377" t="s">
+        <v>262</v>
+      </c>
+      <c r="H377">
+        <v>600</v>
+      </c>
+      <c r="I377">
+        <v>8.039999999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>11</v>
+      </c>
+      <c r="C378" s="2">
+        <v>45636.38680555556</v>
+      </c>
+      <c r="D378" t="s">
+        <v>73</v>
+      </c>
+      <c r="E378" t="s">
+        <v>249</v>
+      </c>
+      <c r="F378" t="s">
+        <v>251</v>
+      </c>
+      <c r="G378" t="s">
+        <v>263</v>
+      </c>
+      <c r="H378">
+        <v>600</v>
+      </c>
+      <c r="I378">
+        <v>8.039999999999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>9</v>
+      </c>
+      <c r="B379" t="s">
+        <v>12</v>
+      </c>
+      <c r="C379" s="2">
+        <v>45636.38680555556</v>
+      </c>
+      <c r="D379" t="s">
+        <v>70</v>
+      </c>
+      <c r="E379" t="s">
+        <v>249</v>
+      </c>
+      <c r="F379" t="s">
+        <v>252</v>
+      </c>
+      <c r="G379" t="s">
+        <v>264</v>
+      </c>
+      <c r="H379">
+        <v>600</v>
+      </c>
+      <c r="I379">
+        <v>8.039999999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380" t="s">
+        <v>8</v>
+      </c>
+      <c r="C380" s="2">
+        <v>45636.38680555556</v>
+      </c>
+      <c r="D380" t="s">
+        <v>149</v>
+      </c>
+      <c r="E380" t="s">
+        <v>249</v>
+      </c>
+      <c r="G380" t="s">
+        <v>8</v>
+      </c>
+      <c r="H380">
+        <v>600</v>
+      </c>
+      <c r="I380">
+        <v>8.039999999999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381" t="s">
+        <v>15</v>
+      </c>
+      <c r="C381" s="2">
+        <v>45636.38680555556</v>
+      </c>
+      <c r="D381" t="s">
+        <v>187</v>
+      </c>
+      <c r="E381" t="s">
+        <v>249</v>
+      </c>
+      <c r="F381" t="s">
+        <v>260</v>
+      </c>
+      <c r="G381" t="s">
+        <v>265</v>
+      </c>
+      <c r="H381">
+        <v>600</v>
+      </c>
+      <c r="I381">
+        <v>8.039999999999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" t="s">
+        <v>13</v>
+      </c>
+      <c r="C382" s="2">
+        <v>45636.38680555556</v>
+      </c>
+      <c r="D382" t="s">
+        <v>193</v>
+      </c>
+      <c r="E382" t="s">
+        <v>249</v>
+      </c>
+      <c r="F382" t="s">
+        <v>257</v>
+      </c>
+      <c r="H382">
+        <v>600</v>
+      </c>
+      <c r="I382">
+        <v>8.039999999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" t="s">
+        <v>14</v>
+      </c>
+      <c r="C383" s="2">
+        <v>45636.38680555556</v>
+      </c>
+      <c r="D383" t="s">
+        <v>248</v>
+      </c>
+      <c r="E383" t="s">
+        <v>249</v>
+      </c>
+      <c r="F383" t="s">
+        <v>258</v>
+      </c>
+      <c r="H383">
+        <v>600</v>
+      </c>
+      <c r="I383">
+        <v>8.039999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/Lakes/LakeKohata_ce1e57260f.xlsx
+++ b/data/Lakes/LakeKohata_ce1e57260f.xlsx
@@ -64,7 +64,7 @@
     <t>Nitrate Nitrogen (NO3)</t>
   </si>
   <si>
-    <t>BIOVOL</t>
+    <t>Cyanobacteria Biovolume</t>
   </si>
   <si>
     <t>&lt;0.0100</t>
